--- a/data/long_razon/P19_1-Urba-long_razon.xlsx
+++ b/data/long_razon/P19_1-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-24,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-38,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-31,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 28,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 54,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,17; -0,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 24,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,28; 141,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,78; -24,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 16,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,09; 81,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-42,83; -16,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-26,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 35,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,81; 33,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 14,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 30,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,95; 89,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,67; -20,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 23,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 44,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-38,88; -12,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>80,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 212,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 141,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 91,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 78,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 129,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,47; 33,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 107,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 87,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 39,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-35,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-26,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,97 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 29,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 38,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 20,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,26; 96,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,97; -25,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 16,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,48; 55,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,33; -16,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P19_1-Urba-long_razon.xlsx
+++ b/data/long_razon/P19_1-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -678,509 +683,145 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
+      <c r="O7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1188,167 +829,143 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1356,14 +973,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P19_1-Urba-long_razon.xlsx
+++ b/data/long_razon/P19_1-Urba-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.02566781527712084</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2204354179998413</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2627218493616367</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.1809362696969088</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.1210585798618939</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.01487515345107664</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.8912531118357495</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.3533835504990779</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.03001862146108634</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.02759546635183754</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.004668523251067444</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.5168170200323026</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.3082807170864275</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.07890315787479557</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.04119718401232951</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.2290749702182728</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.07045834578263917</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4257468213643243</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3539894446178326</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1781302065890418</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1721281130834037</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.511922226816129</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4813455041257039</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.2046753359199676</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2363166360193444</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1519357599779911</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.2680551901017478</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.4170250691155109</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.2303251597683101</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.1307319744996496</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.2639801967558927</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.5722543953510142</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.007308760002827019</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.08296273224102181</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5241735494150341</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.2752073268399753</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.406618479183819</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.218452493909858</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.3137931953278424</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.2268438407338415</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.1695455010526871</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.8108785153791314</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>-0.18112113057337</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.1002702814501271</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.2878314901186955</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.1445155315951364</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.03187507086579344</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1633316656256555</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2345718524321313</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.4497990325425655</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.06860186720242899</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.4641985351859396</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.3586071910821733</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.06012291408710854</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.2223052062809083</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.1034574159688158</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.1926202796974593</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.2634989360457635</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.1481621684963922</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.3447872958292961</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.14214150361873</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2824953786092538</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3504804915571246</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5128053284797532</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.7455038106697366</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1673635201561491</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.1257060193074737</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4945127843662603</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2940284989287609</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.5014146270465629</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.07307063073818114</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.01061884036121949</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.3924341816859886</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.3416294413356558</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.5361939693248438</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.4929609498630994</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2891609857693135</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1010299759063184</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.05742145088424355</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.1419577909156695</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3860037352726918</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.9336445344662536</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.179210895484201</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.2165777364075468</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.2569104839222706</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.3297157544556538</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.4614453294448188</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>-0.1236632168512336</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.06443805748003521</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>-0.06218270512110954</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,20 +1009,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.3174393391150953</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.4565698265173349</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1852119709111308</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4260355265357174</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>0.05639892872980701</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.3568313584588081</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.1516848145583683</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.478958357826205</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>0.1891036777404534</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.4078003094148056</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.001832932628118332</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>-0.1310903775533059</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1056,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.3318412989505014</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.1184094880781551</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2615518346979229</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.6084034104462765</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.3691077065842039</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.1591233301874418</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.4646138085361863</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.6932204402898064</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.2109459389515595</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.0359366689451986</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.292159614868353</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.5273560577274381</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1103,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.295469988535397</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.553327310370624</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.003881100561207</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.047041390452908</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>0.8101787819390674</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.208402618261702</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.2792482731947823</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.03674588321250451</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>0.7168062656420996</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.020693739260156</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.4118745153540204</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.386707759632942</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,21 +1154,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.07564934922269179</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1440625384017989</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1816224537925206</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.1427282295515268</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.06088096452451417</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.04087722648806108</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.6411720695377573</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.3335127641723943</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.08132034240021202</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.07759265483102239</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.05740687709494711</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.368874639702324</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.2592146924531821</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>-0.1117407491384324</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>-0.06949653059913047</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1207,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.0909363299287218</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.03817116360044379</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3065542670104109</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.31525883490644</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.286766519075742</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.09573129025140978</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.3998438790707859</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4156177774915839</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2272137378561366</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.2648842832406203</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.05967373235479988</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2142357577187449</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.3348521016740763</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.2334313680332863</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.215417050141006</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1260,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.2702248699683386</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3807493197976018</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.02726390133249928</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.05161939776865004</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2288554644908003</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.216286962598525</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.963361602163971</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.2242516096930721</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.1020922583056128</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.1587553855801507</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.1861779832913458</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.5511696170896409</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>-0.1663250336915995</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.01713331668730904</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.1208748380412374</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
